--- a/biology/Botanique/Abromeitiella/Abromeitiella.xlsx
+++ b/biology/Botanique/Abromeitiella/Abromeitiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abromeitiella est un ancien genre de plantes de la famille des Bromeliaceae créé par Carl Christian Mez. L'analyse de son ADN l'a fait transférer et incorporer dans le genre Deuterocohnia[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abromeitiella est un ancien genre de plantes de la famille des Bromeliaceae créé par Carl Christian Mez. L'analyse de son ADN l'a fait transférer et incorporer dans le genre Deuterocohnia,.
 Il portait le nom du botaniste allemand Johannes Abromeit.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace. Elle possède un feuillage persistant, composé de feuilles en rosettes, qui peuvent être plus ou moins épineuses[5]. Elle peut atteindre une taille de 10 à 50 cm. En poussant elle prend une forme semblable à un coussin[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace. Elle possède un feuillage persistant, composé de feuilles en rosettes, qui peuvent être plus ou moins épineuses. Elle peut atteindre une taille de 10 à 50 cm. En poussant elle prend une forme semblable à un coussin.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de bromeliaceae se développe sur un sol sec, de sable ou de graviers, dans un environnement ensoleillé. Elle supporte mal l'humidité. tant qu'elle reste dans un environnement sec, elle peut résister à des températures descendant jusqu'à -5°C[5]. 
-Elle fleurit généralement en hiver[5].
-On la retrouve généralement dans des régions montagneuses ou très sèches[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de bromeliaceae se développe sur un sol sec, de sable ou de graviers, dans un environnement ensoleillé. Elle supporte mal l'humidité. tant qu'elle reste dans un environnement sec, elle peut résister à des températures descendant jusqu'à -5°C. 
+Elle fleurit généralement en hiver.
+On la retrouve généralement dans des régions montagneuses ou très sèches.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 juillet 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 juillet 2018) :
 Deuterocohnia bracteosa W. Till &amp; L. Hrom.
 Deuterocohnia brevifolia (Griseb.) M. A. Spencer &amp; L. B. Sm.
 Deuterocohnia brevispicata Rauh &amp; L. Hrom.
@@ -597,7 +615,7 @@
 Deuterocohnia schreiteri A. Cast.
 Deuterocohnia seramisiana R. Vásquez, Ibisch &amp; E. Gross
 Deuterocohnia strobilifera Mez
-Selon Tropicos                                           (9 juillet 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
 Abromeitiella abstrusa A. Cast.
 Abromeitiella brevifolia (Griseb.) A. Cast.
 Abromeitiella chlorantha (Speg.) Mez
